--- a/src/test/resources/controller/addFunctionData.xlsx
+++ b/src/test/resources/controller/addFunctionData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\testng-example\src\test\resources\controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea-example\testng-example\src\test\resources\controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994931D-E998-4A33-BD9E-680039E184CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C7284D-3BD9-4E95-A003-0CFD2C2F0A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>numX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>mockReturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectedResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,19 +361,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,11 +382,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,11 +393,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -415,11 +404,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -429,11 +415,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -443,11 +426,8 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -457,11 +437,8 @@
       <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>200</v>
       </c>
@@ -469,9 +446,6 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>400</v>
-      </c>
-      <c r="D7">
         <v>400</v>
       </c>
     </row>
